--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H2">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I2">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J2">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N2">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q2">
-        <v>11.90041234900167</v>
+        <v>1.474417955623667</v>
       </c>
       <c r="R2">
-        <v>107.103711141015</v>
+        <v>13.269761600613</v>
       </c>
       <c r="S2">
-        <v>0.07376136425579428</v>
+        <v>0.01048486240792662</v>
       </c>
       <c r="T2">
-        <v>0.0737613642557943</v>
+        <v>0.01048486240792662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H3">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I3">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J3">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q3">
-        <v>7.461697556146335</v>
+        <v>1.121892771610334</v>
       </c>
       <c r="R3">
-        <v>67.15527800531702</v>
+        <v>10.097034944493</v>
       </c>
       <c r="S3">
-        <v>0.04624923702342566</v>
+        <v>0.007977989756511194</v>
       </c>
       <c r="T3">
-        <v>0.04624923702342566</v>
+        <v>0.007977989756511194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H4">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I4">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J4">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N4">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O4">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P4">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q4">
-        <v>1.616891947687</v>
+        <v>0.2818955885946667</v>
       </c>
       <c r="R4">
-        <v>14.552027529183</v>
+        <v>2.537060297352</v>
       </c>
       <c r="S4">
-        <v>0.01002185070718214</v>
+        <v>0.002004612361470027</v>
       </c>
       <c r="T4">
-        <v>0.01002185070718215</v>
+        <v>0.002004612361470027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H5">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I5">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J5">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N5">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O5">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P5">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q5">
-        <v>20.79109105664734</v>
+        <v>2.488830805482</v>
       </c>
       <c r="R5">
-        <v>187.119819509826</v>
+        <v>22.399477249338</v>
       </c>
       <c r="S5">
-        <v>0.1288677396824324</v>
+        <v>0.01769854229769601</v>
       </c>
       <c r="T5">
-        <v>0.1288677396824325</v>
+        <v>0.01769854229769601</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2.127488</v>
       </c>
       <c r="I6">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J6">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N6">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q6">
-        <v>24.36738828323556</v>
+        <v>20.07954543028622</v>
       </c>
       <c r="R6">
-        <v>219.30649454912</v>
+        <v>180.715908872576</v>
       </c>
       <c r="S6">
-        <v>0.151034413801039</v>
+        <v>0.1427894107279843</v>
       </c>
       <c r="T6">
-        <v>0.151034413801039</v>
+        <v>0.1427894107279843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2.127488</v>
       </c>
       <c r="I7">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J7">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q7">
         <v>15.27863709848178</v>
@@ -883,10 +883,10 @@
         <v>137.507733886336</v>
       </c>
       <c r="S7">
-        <v>0.09470034174469166</v>
+        <v>0.1086492518266055</v>
       </c>
       <c r="T7">
-        <v>0.09470034174469166</v>
+        <v>0.1086492518266055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2.127488</v>
       </c>
       <c r="I8">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J8">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N8">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O8">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P8">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q8">
-        <v>3.310762076629334</v>
+        <v>3.83903034834489</v>
       </c>
       <c r="R8">
-        <v>29.796858689664</v>
+        <v>34.551273135104</v>
       </c>
       <c r="S8">
-        <v>0.02052082905505479</v>
+        <v>0.02730006429230213</v>
       </c>
       <c r="T8">
-        <v>0.02052082905505479</v>
+        <v>0.02730006429230213</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>2.127488</v>
       </c>
       <c r="I9">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J9">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N9">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O9">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P9">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q9">
-        <v>42.57201967055644</v>
+        <v>33.89445376486401</v>
       </c>
       <c r="R9">
-        <v>383.148177035008</v>
+        <v>305.050083883776</v>
       </c>
       <c r="S9">
-        <v>0.2638707095126989</v>
+        <v>0.2410298129922782</v>
       </c>
       <c r="T9">
-        <v>0.263870709512699</v>
+        <v>0.2410298129922782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H10">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I10">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J10">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N10">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q10">
-        <v>1.936791648792778</v>
+        <v>8.488783069302666</v>
       </c>
       <c r="R10">
-        <v>17.431124839135</v>
+        <v>76.399047623724</v>
       </c>
       <c r="S10">
-        <v>0.01200465917520657</v>
+        <v>0.06036532731638337</v>
       </c>
       <c r="T10">
-        <v>0.01200465917520658</v>
+        <v>0.06036532731638337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H11">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I11">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J11">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q11">
-        <v>1.214390988205889</v>
+        <v>6.459161955329333</v>
       </c>
       <c r="R11">
-        <v>10.929518893853</v>
+        <v>58.13245759796399</v>
       </c>
       <c r="S11">
-        <v>0.007527061533924333</v>
+        <v>0.04593231119699424</v>
       </c>
       <c r="T11">
-        <v>0.007527061533924334</v>
+        <v>0.04593231119699425</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H12">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I12">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J12">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N12">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O12">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P12">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q12">
-        <v>0.2631491018496667</v>
+        <v>1.622979760010667</v>
       </c>
       <c r="R12">
-        <v>2.368341916647</v>
+        <v>14.606817840096</v>
       </c>
       <c r="S12">
-        <v>0.001631055814359803</v>
+        <v>0.01154131324137576</v>
       </c>
       <c r="T12">
-        <v>0.001631055814359804</v>
+        <v>0.01154131324137576</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H13">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I13">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J13">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N13">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O13">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P13">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q13">
-        <v>3.383749264048222</v>
+        <v>14.329142373336</v>
       </c>
       <c r="R13">
-        <v>30.453743376434</v>
+        <v>128.962281360024</v>
       </c>
       <c r="S13">
-        <v>0.02097321964113916</v>
+        <v>0.101897216888185</v>
       </c>
       <c r="T13">
-        <v>0.02097321964113916</v>
+        <v>0.101897216888185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H14">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I14">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J14">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N14">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q14">
-        <v>7.76065893139</v>
+        <v>8.588959566278001</v>
       </c>
       <c r="R14">
-        <v>69.84593038251001</v>
+        <v>77.300636096502</v>
       </c>
       <c r="S14">
-        <v>0.04810226515817018</v>
+        <v>0.0610777011607796</v>
       </c>
       <c r="T14">
-        <v>0.04810226515817019</v>
+        <v>0.0610777011607796</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H15">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I15">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J15">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q15">
-        <v>4.866023805242</v>
+        <v>6.535386805558001</v>
       </c>
       <c r="R15">
-        <v>43.794214247178</v>
+        <v>58.818481250022</v>
       </c>
       <c r="S15">
-        <v>0.03016068215534832</v>
+        <v>0.04647436039251854</v>
       </c>
       <c r="T15">
-        <v>0.03016068215534833</v>
+        <v>0.04647436039251855</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H16">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I16">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J16">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N16">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O16">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P16">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q16">
-        <v>1.054429591758</v>
+        <v>1.642132614512</v>
       </c>
       <c r="R16">
-        <v>9.489866325822</v>
+        <v>14.779193530608</v>
       </c>
       <c r="S16">
-        <v>0.006535585735924099</v>
+        <v>0.01167751277923379</v>
       </c>
       <c r="T16">
-        <v>0.006535585735924102</v>
+        <v>0.01167751277923379</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H17">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I17">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J17">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N17">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O17">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P17">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q17">
-        <v>13.558569381476</v>
+        <v>14.498241203628</v>
       </c>
       <c r="R17">
-        <v>122.027124433284</v>
+        <v>130.484170832652</v>
       </c>
       <c r="S17">
-        <v>0.08403898500360868</v>
+        <v>0.1030997103617557</v>
       </c>
       <c r="T17">
-        <v>0.08403898500360871</v>
+        <v>0.1030997103617557</v>
       </c>
     </row>
   </sheetData>
